--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3752,28 +3752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>645.504414550226</v>
+        <v>755.1794792187577</v>
       </c>
       <c r="AB2" t="n">
-        <v>883.2076176325386</v>
+        <v>1033.269879634391</v>
       </c>
       <c r="AC2" t="n">
-        <v>798.915522195365</v>
+        <v>934.6560525254685</v>
       </c>
       <c r="AD2" t="n">
-        <v>645504.4145502259</v>
+        <v>755179.4792187577</v>
       </c>
       <c r="AE2" t="n">
-        <v>883207.6176325385</v>
+        <v>1033269.879634391</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.06047331596299e-07</v>
+        <v>1.676424779718186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>798915.522195365</v>
+        <v>934656.0525254684</v>
       </c>
     </row>
     <row r="3">
@@ -3858,28 +3858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.3304890096588</v>
+        <v>543.5041822002789</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.5269245797639</v>
+        <v>743.646399798679</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.1096180935816</v>
+        <v>672.6738311161697</v>
       </c>
       <c r="AD3" t="n">
-        <v>470330.4890096588</v>
+        <v>543504.182200279</v>
       </c>
       <c r="AE3" t="n">
-        <v>643526.9245797639</v>
+        <v>743646.399798679</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157902207241611e-06</v>
+        <v>2.142422238902544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>582109.6180935816</v>
+        <v>672673.8311161697</v>
       </c>
     </row>
     <row r="4">
@@ -3964,28 +3964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.8697384548955</v>
+        <v>494.9580907909439</v>
       </c>
       <c r="AB4" t="n">
-        <v>577.2207877333101</v>
+        <v>677.2234958300279</v>
       </c>
       <c r="AC4" t="n">
-        <v>522.131645886506</v>
+        <v>612.5902358771554</v>
       </c>
       <c r="AD4" t="n">
-        <v>421869.7384548954</v>
+        <v>494958.0907909439</v>
       </c>
       <c r="AE4" t="n">
-        <v>577220.7877333101</v>
+        <v>677223.4958300279</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.253695757718752e-06</v>
+        <v>2.319665387419004e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>522131.6458865061</v>
+        <v>612590.2358771553</v>
       </c>
     </row>
     <row r="5">
@@ -4070,28 +4070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>389.9326670516475</v>
+        <v>463.1062707337165</v>
       </c>
       <c r="AB5" t="n">
-        <v>533.5230776752358</v>
+        <v>633.6424304246027</v>
       </c>
       <c r="AC5" t="n">
-        <v>482.604383946253</v>
+        <v>573.1684861876145</v>
       </c>
       <c r="AD5" t="n">
-        <v>389932.6670516475</v>
+        <v>463106.2707337165</v>
       </c>
       <c r="AE5" t="n">
-        <v>533523.0776752358</v>
+        <v>633642.4304246027</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.307941423242358e-06</v>
+        <v>2.420034070935635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>482604.383946253</v>
+        <v>573168.4861876145</v>
       </c>
     </row>
     <row r="6">
@@ -4176,28 +4176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>378.562855198453</v>
+        <v>451.5658666799298</v>
       </c>
       <c r="AB6" t="n">
-        <v>517.9663994969973</v>
+        <v>617.8523404715173</v>
       </c>
       <c r="AC6" t="n">
-        <v>468.5324132994106</v>
+        <v>558.8853802581209</v>
       </c>
       <c r="AD6" t="n">
-        <v>378562.8551984529</v>
+        <v>451565.8666799298</v>
       </c>
       <c r="AE6" t="n">
-        <v>517966.3994969972</v>
+        <v>617852.3404715173</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.338588823772691e-06</v>
+        <v>2.47673978584843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.35416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>468532.4132994106</v>
+        <v>558885.3802581209</v>
       </c>
     </row>
     <row r="7">
@@ -4282,28 +4282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>369.4626423656491</v>
+        <v>430.440734942591</v>
       </c>
       <c r="AB7" t="n">
-        <v>505.5150868260993</v>
+        <v>588.9480032534534</v>
       </c>
       <c r="AC7" t="n">
-        <v>457.2694364342961</v>
+        <v>532.7396324166572</v>
       </c>
       <c r="AD7" t="n">
-        <v>369462.6423656491</v>
+        <v>430440.734942591</v>
       </c>
       <c r="AE7" t="n">
-        <v>505515.0868260993</v>
+        <v>588948.0032534534</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.36017971904349e-06</v>
+        <v>2.516688594907331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>457269.4364342961</v>
+        <v>532739.6324166572</v>
       </c>
     </row>
     <row r="8">
@@ -4388,28 +4388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>361.1683932889138</v>
+        <v>422.1464858658557</v>
       </c>
       <c r="AB8" t="n">
-        <v>494.166529322866</v>
+        <v>577.5994457502201</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.0039693313708</v>
+        <v>522.4741653137319</v>
       </c>
       <c r="AD8" t="n">
-        <v>361168.3932889138</v>
+        <v>422146.4858658556</v>
       </c>
       <c r="AE8" t="n">
-        <v>494166.529322866</v>
+        <v>577599.4457502201</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.380066684201025e-06</v>
+        <v>2.553484687143203e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.00911458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>447003.9693313708</v>
+        <v>522474.1653137319</v>
       </c>
     </row>
     <row r="9">
@@ -4494,28 +4494,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>343.484224176494</v>
+        <v>416.5724870039914</v>
       </c>
       <c r="AB9" t="n">
-        <v>469.9702689727736</v>
+        <v>569.9728545999428</v>
       </c>
       <c r="AC9" t="n">
-        <v>425.1169661094266</v>
+        <v>515.5754453188491</v>
       </c>
       <c r="AD9" t="n">
-        <v>343484.2241764939</v>
+        <v>416572.4870039914</v>
       </c>
       <c r="AE9" t="n">
-        <v>469970.2689727736</v>
+        <v>569972.8545999428</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.388142846107723e-06</v>
+        <v>2.568427701126316e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>425116.9661094266</v>
+        <v>515575.4453188492</v>
       </c>
     </row>
     <row r="10">
@@ -4600,28 +4600,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>336.3569764104215</v>
+        <v>409.4452392379189</v>
       </c>
       <c r="AB10" t="n">
-        <v>460.2184541472533</v>
+        <v>560.2210397744224</v>
       </c>
       <c r="AC10" t="n">
-        <v>416.2958508040958</v>
+        <v>506.7543300135184</v>
       </c>
       <c r="AD10" t="n">
-        <v>336356.9764104215</v>
+        <v>409445.2392379189</v>
       </c>
       <c r="AE10" t="n">
-        <v>460218.4541472533</v>
+        <v>560221.0397744224</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.400327113492974e-06</v>
+        <v>2.590971785806042e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.85286458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>416295.8508040958</v>
+        <v>506754.3300135185</v>
       </c>
     </row>
     <row r="11">
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>330.2400860094165</v>
+        <v>403.328348836914</v>
       </c>
       <c r="AB11" t="n">
-        <v>451.8490548424395</v>
+        <v>551.8516404696087</v>
       </c>
       <c r="AC11" t="n">
-        <v>408.7252152224078</v>
+        <v>499.1836944318304</v>
       </c>
       <c r="AD11" t="n">
-        <v>330240.0860094166</v>
+        <v>403328.348836914</v>
       </c>
       <c r="AE11" t="n">
-        <v>451849.0548424395</v>
+        <v>551851.6404696087</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.408776739534086e-06</v>
+        <v>2.606605806216119e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.78776041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>408725.2152224078</v>
+        <v>499183.6944318304</v>
       </c>
     </row>
     <row r="12">
@@ -4812,28 +4812,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>325.2004349466188</v>
+        <v>398.2886977741162</v>
       </c>
       <c r="AB12" t="n">
-        <v>444.9535819246062</v>
+        <v>544.9561675517755</v>
       </c>
       <c r="AC12" t="n">
-        <v>402.4878365619954</v>
+        <v>492.9463157714181</v>
       </c>
       <c r="AD12" t="n">
-        <v>325200.4349466188</v>
+        <v>398288.6977741162</v>
       </c>
       <c r="AE12" t="n">
-        <v>444953.5819246062</v>
+        <v>544956.1675517755</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.413048235571444e-06</v>
+        <v>2.614509192224529e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>402487.8365619954</v>
+        <v>492946.3157714181</v>
       </c>
     </row>
     <row r="13">
@@ -4918,28 +4918,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>325.8579041396116</v>
+        <v>398.946166967109</v>
       </c>
       <c r="AB13" t="n">
-        <v>445.8531602799526</v>
+        <v>545.8557459071219</v>
       </c>
       <c r="AC13" t="n">
-        <v>403.3015604216738</v>
+        <v>493.7600396310964</v>
       </c>
       <c r="AD13" t="n">
-        <v>325857.9041396116</v>
+        <v>398946.166967109</v>
       </c>
       <c r="AE13" t="n">
-        <v>445853.1602799526</v>
+        <v>545855.7459071219</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.412418014844621e-06</v>
+        <v>2.613343118879026e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.76171875</v>
       </c>
       <c r="AH13" t="n">
-        <v>403301.5604216738</v>
+        <v>493760.0396310965</v>
       </c>
     </row>
   </sheetData>
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.9039737764674</v>
+        <v>607.2500482140391</v>
       </c>
       <c r="AB2" t="n">
-        <v>718.1967740499384</v>
+        <v>830.8663059478343</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.6530819301148</v>
+        <v>751.5695918363567</v>
       </c>
       <c r="AD2" t="n">
-        <v>524903.9737764674</v>
+        <v>607250.0482140391</v>
       </c>
       <c r="AE2" t="n">
-        <v>718196.7740499384</v>
+        <v>830866.3059478344</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045735057443322e-06</v>
+        <v>1.993332410286715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>649653.0819301148</v>
+        <v>751569.5918363567</v>
       </c>
     </row>
     <row r="3">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>397.5256378719951</v>
+        <v>468.0226593222779</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.9121153298663</v>
+        <v>640.3692501872291</v>
       </c>
       <c r="AC3" t="n">
-        <v>492.0019064282315</v>
+        <v>579.2533077132467</v>
       </c>
       <c r="AD3" t="n">
-        <v>397525.6378719951</v>
+        <v>468022.6593222779</v>
       </c>
       <c r="AE3" t="n">
-        <v>543912.1153298663</v>
+        <v>640369.2501872291</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.273098161278326e-06</v>
+        <v>2.426721575689406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>492001.9064282315</v>
+        <v>579253.3077132467</v>
       </c>
     </row>
     <row r="4">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.128147311149</v>
+        <v>428.7104201074523</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.0067306499017</v>
+        <v>586.580510159914</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.2411760054401</v>
+        <v>530.5980895411676</v>
       </c>
       <c r="AD4" t="n">
-        <v>358128.147311149</v>
+        <v>428710.4201074523</v>
       </c>
       <c r="AE4" t="n">
-        <v>490006.7306499017</v>
+        <v>586580.5101599139</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.360411774645719e-06</v>
+        <v>2.59315479808704e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.55598958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>443241.1760054401</v>
+        <v>530598.0895411676</v>
       </c>
     </row>
     <row r="5">
@@ -5533,28 +5533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>343.6460205736118</v>
+        <v>402.4646707457489</v>
       </c>
       <c r="AB5" t="n">
-        <v>470.1916459412635</v>
+        <v>550.6699180024885</v>
       </c>
       <c r="AC5" t="n">
-        <v>425.3172151707482</v>
+        <v>498.1147538984143</v>
       </c>
       <c r="AD5" t="n">
-        <v>343646.0205736118</v>
+        <v>402464.670745749</v>
       </c>
       <c r="AE5" t="n">
-        <v>470191.6459412635</v>
+        <v>550669.9180024886</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.404141020721036e-06</v>
+        <v>2.676509489946033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>425317.2151707482</v>
+        <v>498114.7538984143</v>
       </c>
     </row>
     <row r="6">
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.7703257766614</v>
+        <v>390.2672577183931</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.5238669987612</v>
+        <v>533.9808793865757</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.7672032010027</v>
+        <v>483.0184937047913</v>
       </c>
       <c r="AD6" t="n">
-        <v>319770.3257766614</v>
+        <v>390267.2577183931</v>
       </c>
       <c r="AE6" t="n">
-        <v>437523.8669987612</v>
+        <v>533980.8793865757</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.436279964136966e-06</v>
+        <v>2.73777127617702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.94401041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>395767.2032010027</v>
+        <v>483018.4937047913</v>
       </c>
     </row>
     <row r="7">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>310.9913842534337</v>
+        <v>381.4883161951655</v>
       </c>
       <c r="AB7" t="n">
-        <v>425.5121319071154</v>
+        <v>521.9691442949297</v>
       </c>
       <c r="AC7" t="n">
-        <v>384.9018512479274</v>
+        <v>472.153141751716</v>
       </c>
       <c r="AD7" t="n">
-        <v>310991.3842534337</v>
+        <v>381488.3161951655</v>
       </c>
       <c r="AE7" t="n">
-        <v>425512.1319071153</v>
+        <v>521969.1442949297</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.455017620102977e-06</v>
+        <v>2.773488140275628e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>384901.8512479274</v>
+        <v>472153.141751716</v>
       </c>
     </row>
     <row r="8">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>303.7433147037906</v>
+        <v>374.2402466455223</v>
       </c>
       <c r="AB8" t="n">
-        <v>415.5950033870326</v>
+        <v>512.0520157748472</v>
       </c>
       <c r="AC8" t="n">
-        <v>375.9311995550241</v>
+        <v>463.1824900588128</v>
       </c>
       <c r="AD8" t="n">
-        <v>303743.3147037906</v>
+        <v>374240.2466455223</v>
       </c>
       <c r="AE8" t="n">
-        <v>415595.0033870327</v>
+        <v>512052.0157748471</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.467694513636683e-06</v>
+        <v>2.797652255806258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.70963541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>375931.1995550242</v>
+        <v>463182.4900588128</v>
       </c>
     </row>
     <row r="9">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>299.554161476827</v>
+        <v>370.0510934185588</v>
       </c>
       <c r="AB9" t="n">
-        <v>409.8632191295042</v>
+        <v>506.3202315173186</v>
       </c>
       <c r="AC9" t="n">
-        <v>370.7464487424245</v>
+        <v>457.9977392462131</v>
       </c>
       <c r="AD9" t="n">
-        <v>299554.161476827</v>
+        <v>370051.0934185588</v>
       </c>
       <c r="AE9" t="n">
-        <v>409863.2191295042</v>
+        <v>506320.2315173186</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.471968437742332e-06</v>
+        <v>2.805799014756585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>370746.4487424245</v>
+        <v>457997.7392462131</v>
       </c>
     </row>
     <row r="10">
@@ -6063,28 +6063,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>298.4619176470366</v>
+        <v>368.9588495887683</v>
       </c>
       <c r="AB10" t="n">
-        <v>408.3687629351879</v>
+        <v>504.8257753230024</v>
       </c>
       <c r="AC10" t="n">
-        <v>369.3946213498114</v>
+        <v>456.6459118536</v>
       </c>
       <c r="AD10" t="n">
-        <v>298461.9176470366</v>
+        <v>368958.8495887683</v>
       </c>
       <c r="AE10" t="n">
-        <v>408368.762935188</v>
+        <v>504825.7753230024</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476121629528613e-06</v>
+        <v>2.813715639273286e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>369394.6213498114</v>
+        <v>456645.9118535999</v>
       </c>
     </row>
   </sheetData>
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.9342202097991</v>
+        <v>344.7148751569444</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.7548381510096</v>
+        <v>471.6540999367153</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.9389378081922</v>
+        <v>426.6400946094412</v>
       </c>
       <c r="AD2" t="n">
-        <v>281934.2202097991</v>
+        <v>344714.8751569444</v>
       </c>
       <c r="AE2" t="n">
-        <v>385754.8381510096</v>
+        <v>471654.0999367153</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.479760969670989e-06</v>
+        <v>3.151503607611426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.85546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>348938.9378081922</v>
+        <v>426640.0946094412</v>
       </c>
     </row>
     <row r="3">
@@ -6466,28 +6466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.151944478357</v>
+        <v>299.8472585709336</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.4817528405274</v>
+        <v>410.2642475041921</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.5136697625242</v>
+        <v>371.109203531879</v>
       </c>
       <c r="AD3" t="n">
-        <v>237151.944478357</v>
+        <v>299847.2585709336</v>
       </c>
       <c r="AE3" t="n">
-        <v>324481.7528405274</v>
+        <v>410264.2475041921</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.633637788640235e-06</v>
+        <v>3.479220962000881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>293513.6697625242</v>
+        <v>371109.203531879</v>
       </c>
     </row>
     <row r="4">
@@ -6572,28 +6572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.7194698153565</v>
+        <v>295.4147839079332</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.417045459632</v>
+        <v>404.1995401232937</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.0277695421893</v>
+        <v>365.6233033115433</v>
       </c>
       <c r="AD4" t="n">
-        <v>232719.4698153565</v>
+        <v>295414.7839079332</v>
       </c>
       <c r="AE4" t="n">
-        <v>318417.0454596321</v>
+        <v>404199.5401232937</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.651959665176584e-06</v>
+        <v>3.518241764134453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.61848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>288027.7695421893</v>
+        <v>365623.3033115433</v>
       </c>
     </row>
   </sheetData>
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.8645575128826</v>
+        <v>431.5817889817134</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.5413431084933</v>
+        <v>590.509243729532</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.201958783773</v>
+        <v>534.1518702929136</v>
       </c>
       <c r="AD2" t="n">
-        <v>354864.5575128826</v>
+        <v>431581.7889817134</v>
       </c>
       <c r="AE2" t="n">
-        <v>485541.3431084933</v>
+        <v>590509.243729532</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30797230439366e-06</v>
+        <v>2.655635985358109e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.83203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>439201.958783773</v>
+        <v>534151.8702929136</v>
       </c>
     </row>
     <row r="3">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.1618777743834</v>
+        <v>362.8220618509932</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.5899910277126</v>
+        <v>496.4291516042111</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.7856129366633</v>
+        <v>449.0506501177947</v>
       </c>
       <c r="AD3" t="n">
-        <v>297161.8777743834</v>
+        <v>362822.0618509932</v>
       </c>
       <c r="AE3" t="n">
-        <v>406589.9910277126</v>
+        <v>496429.1516042111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.491577663245049e-06</v>
+        <v>3.028418342012344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>367785.6129366633</v>
+        <v>449050.6501177947</v>
       </c>
     </row>
     <row r="4">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>266.789973345284</v>
+        <v>332.5354087679145</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.0338114739618</v>
+        <v>454.9896167031097</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.1954968350582</v>
+        <v>411.5660462669019</v>
       </c>
       <c r="AD4" t="n">
-        <v>266789.973345284</v>
+        <v>332535.4087679145</v>
       </c>
       <c r="AE4" t="n">
-        <v>365033.8114739618</v>
+        <v>454989.6167031097</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557333281724607e-06</v>
+        <v>3.161924981325126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>330195.4968350582</v>
+        <v>411566.0462669019</v>
       </c>
     </row>
     <row r="5">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>256.4209215658243</v>
+        <v>322.1663569884579</v>
       </c>
       <c r="AB5" t="n">
-        <v>350.8464173788598</v>
+        <v>440.8022226081779</v>
       </c>
       <c r="AC5" t="n">
-        <v>317.3621277203657</v>
+        <v>398.7326771522577</v>
       </c>
       <c r="AD5" t="n">
-        <v>256420.9215658243</v>
+        <v>322166.356988458</v>
       </c>
       <c r="AE5" t="n">
-        <v>350846.4173788598</v>
+        <v>440802.2226081779</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.583393230875071e-06</v>
+        <v>3.214835687850106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>317362.1277203657</v>
+        <v>398732.6771522578</v>
       </c>
     </row>
     <row r="6">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>257.4688216386119</v>
+        <v>323.2142570612455</v>
       </c>
       <c r="AB6" t="n">
-        <v>352.2802004885355</v>
+        <v>442.2360057178544</v>
       </c>
       <c r="AC6" t="n">
-        <v>318.6590725823816</v>
+        <v>400.0296220142739</v>
       </c>
       <c r="AD6" t="n">
-        <v>257468.8216386118</v>
+        <v>323214.2570612455</v>
       </c>
       <c r="AE6" t="n">
-        <v>352280.2004885355</v>
+        <v>442236.0057178544</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.586537952731012e-06</v>
+        <v>3.221220560447582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.57942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>318659.0725823815</v>
+        <v>400029.6220142739</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.0163603243574</v>
+        <v>288.2488913178789</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.6644847363602</v>
+        <v>394.3948497447121</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.5835233861937</v>
+        <v>356.7543588217242</v>
       </c>
       <c r="AD2" t="n">
-        <v>238016.3603243574</v>
+        <v>288248.8913178788</v>
       </c>
       <c r="AE2" t="n">
-        <v>325664.4847363603</v>
+        <v>394394.8497447121</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624108970290917e-06</v>
+        <v>3.616573449310606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.21744791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>294583.5233861937</v>
+        <v>356754.3588217242</v>
       </c>
     </row>
     <row r="3">
@@ -7696,28 +7696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.5602911280892</v>
+        <v>274.7538800554811</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.5708560533023</v>
+        <v>375.9303799776209</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.5528655809459</v>
+        <v>340.0521121341582</v>
       </c>
       <c r="AD3" t="n">
-        <v>214560.2911280892</v>
+        <v>274753.8800554811</v>
       </c>
       <c r="AE3" t="n">
-        <v>293570.8560533023</v>
+        <v>375930.3799776209</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.69403984862506e-06</v>
+        <v>3.772295856178989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>265552.8655809459</v>
+        <v>340052.1121341581</v>
       </c>
     </row>
   </sheetData>
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>550.8480207455489</v>
+        <v>645.6952711656915</v>
       </c>
       <c r="AB2" t="n">
-        <v>753.6945636836083</v>
+        <v>883.4687560738181</v>
       </c>
       <c r="AC2" t="n">
-        <v>681.7630123426078</v>
+        <v>799.151737950319</v>
       </c>
       <c r="AD2" t="n">
-        <v>550848.0207455489</v>
+        <v>645695.2711656914</v>
       </c>
       <c r="AE2" t="n">
-        <v>753694.5636836083</v>
+        <v>883468.7560738181</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.007577965832021e-06</v>
+        <v>1.905091811100079e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.46223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>681763.0123426078</v>
+        <v>799151.737950319</v>
       </c>
     </row>
     <row r="3">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.1653244702637</v>
+        <v>483.5140472903863</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.9427803910078</v>
+        <v>661.5652506369981</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.1208729291525</v>
+        <v>598.426391628863</v>
       </c>
       <c r="AD3" t="n">
-        <v>412165.3244702637</v>
+        <v>483514.0472903863</v>
       </c>
       <c r="AE3" t="n">
-        <v>563942.7803910078</v>
+        <v>661565.2506369981</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.244145575441468e-06</v>
+        <v>2.352385252522569e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>510120.8729291525</v>
+        <v>598426.3916288631</v>
       </c>
     </row>
     <row r="4">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.5118053585992</v>
+        <v>442.7751873241502</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.3188420357446</v>
+        <v>605.8245451595371</v>
       </c>
       <c r="AC4" t="n">
-        <v>459.8056051818279</v>
+        <v>548.0055008495995</v>
       </c>
       <c r="AD4" t="n">
-        <v>371511.8053585992</v>
+        <v>442775.1873241502</v>
       </c>
       <c r="AE4" t="n">
-        <v>508318.8420357446</v>
+        <v>605824.5451595371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330339843073799e-06</v>
+        <v>2.515358242205334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.71223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>459805.6051818279</v>
+        <v>548005.5008495995</v>
       </c>
     </row>
     <row r="5">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>354.8502622915334</v>
+        <v>425.9430520564922</v>
       </c>
       <c r="AB5" t="n">
-        <v>485.5217837559827</v>
+        <v>582.7940751049283</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.1842661484142</v>
+        <v>527.1730265335349</v>
       </c>
       <c r="AD5" t="n">
-        <v>354850.2622915334</v>
+        <v>425943.0520564922</v>
       </c>
       <c r="AE5" t="n">
-        <v>485521.7837559827</v>
+        <v>582794.0751049283</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380137253107914e-06</v>
+        <v>2.609513375889352e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>439184.2661484142</v>
+        <v>527173.0265335349</v>
       </c>
     </row>
     <row r="6">
@@ -8417,28 +8417,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>344.8364155769657</v>
+        <v>404.222656723476</v>
       </c>
       <c r="AB6" t="n">
-        <v>471.8203969013734</v>
+        <v>553.0752719740823</v>
       </c>
       <c r="AC6" t="n">
-        <v>426.7905204251916</v>
+        <v>500.2905442628946</v>
       </c>
       <c r="AD6" t="n">
-        <v>344836.4155769657</v>
+        <v>404222.656723476</v>
       </c>
       <c r="AE6" t="n">
-        <v>471820.3969013734</v>
+        <v>553075.2719740823</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.405382936714829e-06</v>
+        <v>2.657246997242855e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>426790.5204251916</v>
+        <v>500290.5442628946</v>
       </c>
     </row>
     <row r="7">
@@ -8523,28 +8523,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>322.4877358835665</v>
+        <v>393.6657769945459</v>
       </c>
       <c r="AB7" t="n">
-        <v>441.2419473907017</v>
+        <v>538.6308833922967</v>
       </c>
       <c r="AC7" t="n">
-        <v>399.1304352186951</v>
+        <v>487.2247078545279</v>
       </c>
       <c r="AD7" t="n">
-        <v>322487.7358835666</v>
+        <v>393665.7769945459</v>
       </c>
       <c r="AE7" t="n">
-        <v>441241.9473907017</v>
+        <v>538630.8833922967</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.430030381373714e-06</v>
+        <v>2.703849490128265e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.89192708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>399130.4352186951</v>
+        <v>487224.7078545279</v>
       </c>
     </row>
     <row r="8">
@@ -8629,28 +8629,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>315.9448539560146</v>
+        <v>387.122895066994</v>
       </c>
       <c r="AB8" t="n">
-        <v>432.2896876858466</v>
+        <v>529.6786236874415</v>
       </c>
       <c r="AC8" t="n">
-        <v>391.0325666154959</v>
+        <v>479.1268392513287</v>
       </c>
       <c r="AD8" t="n">
-        <v>315944.8539560146</v>
+        <v>387122.895066994</v>
       </c>
       <c r="AE8" t="n">
-        <v>432289.6876858466</v>
+        <v>529678.6236874415</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.44204301945018e-06</v>
+        <v>2.726562549767562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.80078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>391032.5666154958</v>
+        <v>479126.8392513287</v>
       </c>
     </row>
     <row r="9">
@@ -8735,28 +8735,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>309.1067590223655</v>
+        <v>380.284800133345</v>
       </c>
       <c r="AB9" t="n">
-        <v>422.9335045221705</v>
+        <v>520.3224405237654</v>
       </c>
       <c r="AC9" t="n">
-        <v>382.5693244414755</v>
+        <v>470.6635970773084</v>
       </c>
       <c r="AD9" t="n">
-        <v>309106.7590223655</v>
+        <v>380284.800133345</v>
       </c>
       <c r="AE9" t="n">
-        <v>422933.5045221705</v>
+        <v>520322.4405237655</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.452619884051371e-06</v>
+        <v>2.746560901083437e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.72265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>382569.3244414756</v>
+        <v>470663.5970773084</v>
       </c>
     </row>
     <row r="10">
@@ -8841,28 +8841,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>306.6177036117147</v>
+        <v>377.7957447226942</v>
       </c>
       <c r="AB10" t="n">
-        <v>419.5278690999434</v>
+        <v>516.9168051015383</v>
       </c>
       <c r="AC10" t="n">
-        <v>379.4887180841064</v>
+        <v>467.5829907199393</v>
       </c>
       <c r="AD10" t="n">
-        <v>306617.7036117147</v>
+        <v>377795.7447226942</v>
       </c>
       <c r="AE10" t="n">
-        <v>419527.8690999434</v>
+        <v>516916.8051015384</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.456161458623715e-06</v>
+        <v>2.753257181614544e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.69661458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>379488.7180841065</v>
+        <v>467582.9907199393</v>
       </c>
     </row>
     <row r="11">
@@ -8947,28 +8947,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>304.8697367070543</v>
+        <v>376.0477778180338</v>
       </c>
       <c r="AB11" t="n">
-        <v>417.1362236661298</v>
+        <v>514.5251596677247</v>
       </c>
       <c r="AC11" t="n">
-        <v>377.3253279338005</v>
+        <v>465.4196005696333</v>
       </c>
       <c r="AD11" t="n">
-        <v>304869.7367070543</v>
+        <v>376047.7778180338</v>
       </c>
       <c r="AE11" t="n">
-        <v>417136.2236661298</v>
+        <v>514525.1596677247</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.461282384018862e-06</v>
+        <v>2.762939641301416e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.6640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>377325.3279338005</v>
+        <v>465419.6005696333</v>
       </c>
     </row>
   </sheetData>
@@ -9244,28 +9244,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.5654963681491</v>
+        <v>264.2776894223725</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.2637810404199</v>
+        <v>361.5963937764899</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.4203605342009</v>
+        <v>327.086141458187</v>
       </c>
       <c r="AD2" t="n">
-        <v>205565.4963681491</v>
+        <v>264277.6894223726</v>
       </c>
       <c r="AE2" t="n">
-        <v>281263.7810404199</v>
+        <v>361596.3937764899</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.700515568879988e-06</v>
+        <v>3.898545447984013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>254420.3605342009</v>
+        <v>327086.141458187</v>
       </c>
     </row>
     <row r="3">
@@ -9350,28 +9350,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.0539074394489</v>
+        <v>262.7661004936723</v>
       </c>
       <c r="AB3" t="n">
-        <v>279.1955583815763</v>
+        <v>359.5281711176452</v>
       </c>
       <c r="AC3" t="n">
-        <v>252.5495261431479</v>
+        <v>325.2153070671338</v>
       </c>
       <c r="AD3" t="n">
-        <v>204053.9074394489</v>
+        <v>262766.1004936723</v>
       </c>
       <c r="AE3" t="n">
-        <v>279195.5583815763</v>
+        <v>359528.1711176452</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.715894094654467e-06</v>
+        <v>3.933801744810679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>252549.5261431479</v>
+        <v>325215.3070671338</v>
       </c>
     </row>
   </sheetData>
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.1606334357307</v>
+        <v>522.1522770598434</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.9330001314472</v>
+        <v>714.431781205962</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.630622575067</v>
+        <v>646.247414718967</v>
       </c>
       <c r="AD2" t="n">
-        <v>431160.6334357308</v>
+        <v>522152.2770598434</v>
       </c>
       <c r="AE2" t="n">
-        <v>589933.0001314472</v>
+        <v>714431.7812059621</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.166321462659042e-06</v>
+        <v>2.285973948325874e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>533630.622575067</v>
+        <v>646247.4147189669</v>
       </c>
     </row>
     <row r="3">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.6074633837603</v>
+        <v>408.9792073837023</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.0341579424263</v>
+        <v>559.583394431609</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.5565119914492</v>
+        <v>506.1775406472822</v>
       </c>
       <c r="AD3" t="n">
-        <v>340607.4633837603</v>
+        <v>408979.2073837023</v>
       </c>
       <c r="AE3" t="n">
-        <v>466034.1579424263</v>
+        <v>559583.394431609</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.377314665125101e-06</v>
+        <v>2.69951770924718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>421556.5119914492</v>
+        <v>506177.5406472821</v>
       </c>
     </row>
     <row r="4">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>318.6226716045085</v>
+        <v>375.5992144463445</v>
       </c>
       <c r="AB4" t="n">
-        <v>435.9535959294929</v>
+        <v>513.9114154733602</v>
       </c>
       <c r="AC4" t="n">
-        <v>394.3467965986961</v>
+        <v>464.8644312597835</v>
       </c>
       <c r="AD4" t="n">
-        <v>318622.6716045085</v>
+        <v>375599.2144463445</v>
       </c>
       <c r="AE4" t="n">
-        <v>435953.5959294929</v>
+        <v>513911.4154733602</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.453989709341632e-06</v>
+        <v>2.849799736267515e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.13932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>394346.7965986961</v>
+        <v>464864.4312597835</v>
       </c>
     </row>
     <row r="5">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.8738143993452</v>
+        <v>363.1602175447156</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.4593617757535</v>
+        <v>496.8918311427385</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.9537665466455</v>
+        <v>449.4691721705398</v>
       </c>
       <c r="AD5" t="n">
-        <v>294873.8143993453</v>
+        <v>363160.2175447156</v>
       </c>
       <c r="AE5" t="n">
-        <v>403459.3617757534</v>
+        <v>496891.8311427385</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.490909166063673e-06</v>
+        <v>2.922161361218254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>364953.7665466454</v>
+        <v>449469.1721705397</v>
       </c>
     </row>
     <row r="6">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>282.1526333110842</v>
+        <v>350.4390364564546</v>
       </c>
       <c r="AB6" t="n">
-        <v>386.053680591894</v>
+        <v>479.4861499588789</v>
       </c>
       <c r="AC6" t="n">
-        <v>349.2092591459466</v>
+        <v>433.7246647698408</v>
       </c>
       <c r="AD6" t="n">
-        <v>282152.6333110842</v>
+        <v>350439.0364564545</v>
       </c>
       <c r="AE6" t="n">
-        <v>386053.680591894</v>
+        <v>479486.1499588789</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.519320230468371e-06</v>
+        <v>2.977846654812422e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>349209.2591459466</v>
+        <v>433724.6647698408</v>
       </c>
     </row>
     <row r="7">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>278.1430913282061</v>
+        <v>346.4294944735764</v>
       </c>
       <c r="AB7" t="n">
-        <v>380.5676483624119</v>
+        <v>474.0001177293968</v>
       </c>
       <c r="AC7" t="n">
-        <v>344.2468061327517</v>
+        <v>428.7622117566459</v>
       </c>
       <c r="AD7" t="n">
-        <v>278143.0913282061</v>
+        <v>346429.4944735764</v>
       </c>
       <c r="AE7" t="n">
-        <v>380567.6483624119</v>
+        <v>474000.1177293969</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526609584120364e-06</v>
+        <v>2.992133687231941e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>344246.8061327517</v>
+        <v>428762.2117566459</v>
       </c>
     </row>
     <row r="8">
@@ -10283,28 +10283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>279.2779245496548</v>
+        <v>347.5643276950252</v>
       </c>
       <c r="AB8" t="n">
-        <v>382.1203772413064</v>
+        <v>475.5528466082912</v>
       </c>
       <c r="AC8" t="n">
-        <v>345.6513447467131</v>
+        <v>430.1667503706074</v>
       </c>
       <c r="AD8" t="n">
-        <v>279277.9245496548</v>
+        <v>347564.3276950251</v>
       </c>
       <c r="AE8" t="n">
-        <v>382120.3772413064</v>
+        <v>475552.8466082913</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.525539815495669e-06</v>
+        <v>2.99003695551167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.61848958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>345651.3447467131</v>
+        <v>430166.7503706074</v>
       </c>
     </row>
   </sheetData>
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.7859094718752</v>
+        <v>581.8675867453402</v>
       </c>
       <c r="AB2" t="n">
-        <v>668.7784450518559</v>
+        <v>796.1369023711917</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.9511688925489</v>
+        <v>720.1547137940448</v>
       </c>
       <c r="AD2" t="n">
-        <v>488785.9094718752</v>
+        <v>581867.5867453401</v>
       </c>
       <c r="AE2" t="n">
-        <v>668778.4450518559</v>
+        <v>796136.9023711917</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.083870694603379e-06</v>
+        <v>2.08396152417733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64192708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>604951.1688925489</v>
+        <v>720154.7137940448</v>
       </c>
     </row>
     <row r="3">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>382.3761077624328</v>
+        <v>452.1661200124397</v>
       </c>
       <c r="AB3" t="n">
-        <v>523.1838598838646</v>
+        <v>618.6736335623654</v>
       </c>
       <c r="AC3" t="n">
-        <v>473.2519265897069</v>
+        <v>559.6282902890706</v>
       </c>
       <c r="AD3" t="n">
-        <v>382376.1077624328</v>
+        <v>452166.1200124397</v>
       </c>
       <c r="AE3" t="n">
-        <v>523183.8598838645</v>
+        <v>618673.6335623653</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.306105016490234e-06</v>
+        <v>2.511252139625991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>473251.9265897069</v>
+        <v>559628.2902890706</v>
       </c>
     </row>
     <row r="4">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.2505138265244</v>
+        <v>414.9551852219596</v>
       </c>
       <c r="AB4" t="n">
-        <v>472.386984395145</v>
+        <v>567.759990951448</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.3030336037683</v>
+        <v>513.5737742711931</v>
       </c>
       <c r="AD4" t="n">
-        <v>345250.5138265244</v>
+        <v>414955.1852219596</v>
       </c>
       <c r="AE4" t="n">
-        <v>472386.984395145</v>
+        <v>567759.990951448</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.390079705412052e-06</v>
+        <v>2.672710532761961e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.41927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>427303.0336037683</v>
+        <v>513573.7742711931</v>
       </c>
     </row>
     <row r="5">
@@ -10898,28 +10898,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>330.5995664355523</v>
+        <v>388.8290422741262</v>
       </c>
       <c r="AB5" t="n">
-        <v>452.3409118206354</v>
+        <v>532.0130495661422</v>
       </c>
       <c r="AC5" t="n">
-        <v>409.1701300609303</v>
+        <v>481.2384708005534</v>
       </c>
       <c r="AD5" t="n">
-        <v>330599.5664355523</v>
+        <v>388829.0422741261</v>
       </c>
       <c r="AE5" t="n">
-        <v>452340.9118206354</v>
+        <v>532013.0495661421</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.435101839066217e-06</v>
+        <v>2.759274727862726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.06119791666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>409170.1300609303</v>
+        <v>481238.4708005534</v>
       </c>
     </row>
     <row r="6">
@@ -11004,28 +11004,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.8759844788855</v>
+        <v>378.6659072203414</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.6177486107269</v>
+        <v>518.1073998196794</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.2837038310539</v>
+        <v>468.6599567491911</v>
       </c>
       <c r="AD6" t="n">
-        <v>308875.9844788855</v>
+        <v>378665.9072203414</v>
       </c>
       <c r="AE6" t="n">
-        <v>422617.7486107269</v>
+        <v>518107.3998196793</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.460428312735235e-06</v>
+        <v>2.807970016823037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>382283.7038310539</v>
+        <v>468659.9567491911</v>
       </c>
     </row>
     <row r="7">
@@ -11110,28 +11110,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>299.5606535731088</v>
+        <v>369.3505763145646</v>
       </c>
       <c r="AB7" t="n">
-        <v>409.872101902048</v>
+        <v>505.3617531110003</v>
       </c>
       <c r="AC7" t="n">
-        <v>370.7544837556238</v>
+        <v>457.1307366737609</v>
       </c>
       <c r="AD7" t="n">
-        <v>299560.6535731088</v>
+        <v>369350.5763145646</v>
       </c>
       <c r="AE7" t="n">
-        <v>409872.101902048</v>
+        <v>505361.7531110003</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478003276657625e-06</v>
+        <v>2.841761454109259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>370754.4837556238</v>
+        <v>457130.7366737609</v>
       </c>
     </row>
     <row r="8">
@@ -11216,28 +11216,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>291.5126147448644</v>
+        <v>361.3025374863203</v>
       </c>
       <c r="AB8" t="n">
-        <v>398.8604201228295</v>
+        <v>494.3500713317819</v>
       </c>
       <c r="AC8" t="n">
-        <v>360.7937414304214</v>
+        <v>447.1699943485586</v>
       </c>
       <c r="AD8" t="n">
-        <v>291512.6147448645</v>
+        <v>361302.5374863203</v>
       </c>
       <c r="AE8" t="n">
-        <v>398860.4201228295</v>
+        <v>494350.0713317819</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.492019371325272e-06</v>
+        <v>2.868710242513666e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>360793.7414304214</v>
+        <v>447169.9943485586</v>
       </c>
     </row>
     <row r="9">
@@ -11322,28 +11322,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.9018486022847</v>
+        <v>361.6917713437405</v>
       </c>
       <c r="AB9" t="n">
-        <v>399.3929870583377</v>
+        <v>494.8826382672901</v>
       </c>
       <c r="AC9" t="n">
-        <v>361.2754809250671</v>
+        <v>447.6517338432043</v>
       </c>
       <c r="AD9" t="n">
-        <v>291901.8486022847</v>
+        <v>361691.7713437405</v>
       </c>
       <c r="AE9" t="n">
-        <v>399392.9870583377</v>
+        <v>494882.6382672901</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.491873116424392e-06</v>
+        <v>2.868429037765099e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>361275.4809250672</v>
+        <v>447651.7338432043</v>
       </c>
     </row>
   </sheetData>
@@ -11619,28 +11619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.9935236489032</v>
+        <v>714.651115817839</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.5660030065005</v>
+        <v>977.8171848440505</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.8663704388983</v>
+        <v>884.4956850975719</v>
       </c>
       <c r="AD2" t="n">
-        <v>617993.5236489032</v>
+        <v>714651.115817839</v>
       </c>
       <c r="AE2" t="n">
-        <v>845566.0030065005</v>
+        <v>977817.1848440506</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.372654416458921e-07</v>
+        <v>1.746054429553988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>764866.3704388983</v>
+        <v>884495.6850975719</v>
       </c>
     </row>
     <row r="3">
@@ -11725,28 +11725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.1520554774004</v>
+        <v>527.7167026984157</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.3401927930636</v>
+        <v>722.0452738497903</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.4719357966983</v>
+        <v>653.134286310472</v>
       </c>
       <c r="AD3" t="n">
-        <v>443152.0554774004</v>
+        <v>527716.7026984157</v>
       </c>
       <c r="AE3" t="n">
-        <v>606340.1927930636</v>
+        <v>722045.2738497903</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183581133698077e-06</v>
+        <v>2.204921881682733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>548471.9357966983</v>
+        <v>653134.2863104721</v>
       </c>
     </row>
     <row r="4">
@@ -11831,28 +11831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>396.5542192575214</v>
+        <v>481.033525623965</v>
       </c>
       <c r="AB4" t="n">
-        <v>542.5829775255788</v>
+        <v>658.1712914601078</v>
       </c>
       <c r="AC4" t="n">
-        <v>490.7996196705286</v>
+        <v>595.3563471523636</v>
       </c>
       <c r="AD4" t="n">
-        <v>396554.2192575214</v>
+        <v>481033.525623965</v>
       </c>
       <c r="AE4" t="n">
-        <v>542582.9775255788</v>
+        <v>658171.2914601078</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.279669899228799e-06</v>
+        <v>2.383927963877193e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.97265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>490799.6196705286</v>
+        <v>595356.3471523636</v>
       </c>
     </row>
     <row r="5">
@@ -11937,28 +11937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.6712620381595</v>
+        <v>452.2283946743768</v>
       </c>
       <c r="AB5" t="n">
-        <v>519.4829706345424</v>
+        <v>618.7588405021918</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.9042450161093</v>
+        <v>559.7053651981487</v>
       </c>
       <c r="AD5" t="n">
-        <v>379671.2620381595</v>
+        <v>452228.3946743768</v>
       </c>
       <c r="AE5" t="n">
-        <v>519482.9706345424</v>
+        <v>618758.8405021918</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.328114259715516e-06</v>
+        <v>2.474176133132431e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>469904.2450161093</v>
+        <v>559705.3651981486</v>
       </c>
     </row>
     <row r="6">
@@ -12043,28 +12043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>367.7144854306806</v>
+        <v>440.1010258663057</v>
       </c>
       <c r="AB6" t="n">
-        <v>503.1231813844346</v>
+        <v>602.1656394772372</v>
       </c>
       <c r="AC6" t="n">
-        <v>455.1058110909234</v>
+        <v>544.6957959903117</v>
       </c>
       <c r="AD6" t="n">
-        <v>367714.4854306806</v>
+        <v>440101.0258663057</v>
       </c>
       <c r="AE6" t="n">
-        <v>503123.1813844346</v>
+        <v>602165.6394772371</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.359924252614032e-06</v>
+        <v>2.533435737228148e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.26302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>455105.8110909234</v>
+        <v>544695.7959903117</v>
       </c>
     </row>
     <row r="7">
@@ -12149,28 +12149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>357.8652844420653</v>
+        <v>418.3296511474641</v>
       </c>
       <c r="AB7" t="n">
-        <v>489.6470700757301</v>
+        <v>572.3770841016531</v>
       </c>
       <c r="AC7" t="n">
-        <v>442.9158409316807</v>
+        <v>517.7502185312735</v>
       </c>
       <c r="AD7" t="n">
-        <v>357865.2844420653</v>
+        <v>418329.6511474641</v>
       </c>
       <c r="AE7" t="n">
-        <v>489647.0700757301</v>
+        <v>572377.0841016531</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383405297667817e-06</v>
+        <v>2.577179143210046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.07421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>442915.8409316808</v>
+        <v>517750.2185312735</v>
       </c>
     </row>
     <row r="8">
@@ -12255,28 +12255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.0396868532586</v>
+        <v>408.5114786349043</v>
       </c>
       <c r="AB8" t="n">
-        <v>459.7843245773158</v>
+        <v>558.9434273227675</v>
       </c>
       <c r="AC8" t="n">
-        <v>415.9031539510084</v>
+        <v>505.5986511011091</v>
       </c>
       <c r="AD8" t="n">
-        <v>336039.6868532586</v>
+        <v>408511.4786349043</v>
       </c>
       <c r="AE8" t="n">
-        <v>459784.3245773158</v>
+        <v>558943.4273227676</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.402180722470343e-06</v>
+        <v>2.612156335568317e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>415903.1539510085</v>
+        <v>505598.6511011091</v>
       </c>
     </row>
     <row r="9">
@@ -12361,28 +12361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>331.3094948816639</v>
+        <v>403.7812866633096</v>
       </c>
       <c r="AB9" t="n">
-        <v>453.312267240438</v>
+        <v>552.4713699858897</v>
       </c>
       <c r="AC9" t="n">
-        <v>410.0487806827729</v>
+        <v>499.7442778328734</v>
       </c>
       <c r="AD9" t="n">
-        <v>331309.4948816639</v>
+        <v>403781.2866633096</v>
       </c>
       <c r="AE9" t="n">
-        <v>453312.267240438</v>
+        <v>552471.3699858898</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.411074344745223e-06</v>
+        <v>2.628724479316971e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.85286458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>410048.7806827729</v>
+        <v>499744.2778328734</v>
       </c>
     </row>
     <row r="10">
@@ -12467,28 +12467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>325.2755224565717</v>
+        <v>397.7473142382173</v>
       </c>
       <c r="AB10" t="n">
-        <v>445.0563199683508</v>
+        <v>544.2154227138026</v>
       </c>
       <c r="AC10" t="n">
-        <v>402.5807694310389</v>
+        <v>492.2762665811395</v>
       </c>
       <c r="AD10" t="n">
-        <v>325275.5224565716</v>
+        <v>397747.3142382173</v>
       </c>
       <c r="AE10" t="n">
-        <v>445056.3199683508</v>
+        <v>544215.4227138025</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.420744394361562e-06</v>
+        <v>2.646739048313524e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH10" t="n">
-        <v>402580.7694310389</v>
+        <v>492276.2665811395</v>
       </c>
     </row>
     <row r="11">
@@ -12573,28 +12573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>320.7965190095893</v>
+        <v>393.268310791235</v>
       </c>
       <c r="AB11" t="n">
-        <v>438.9279498525034</v>
+        <v>538.0870525979551</v>
       </c>
       <c r="AC11" t="n">
-        <v>397.0372823578264</v>
+        <v>486.732779507927</v>
       </c>
       <c r="AD11" t="n">
-        <v>320796.5190095893</v>
+        <v>393268.310791235</v>
       </c>
       <c r="AE11" t="n">
-        <v>438927.9498525034</v>
+        <v>538087.0525979551</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.42514414929649e-06</v>
+        <v>2.654935458051616e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.74869791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>397037.2823578264</v>
+        <v>486732.779507927</v>
       </c>
     </row>
     <row r="12">
@@ -12679,28 +12679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>318.1003242282171</v>
+        <v>390.5721160098627</v>
       </c>
       <c r="AB12" t="n">
-        <v>435.2388972049111</v>
+        <v>534.3979999503629</v>
       </c>
       <c r="AC12" t="n">
-        <v>393.7003077173025</v>
+        <v>483.3958048674031</v>
       </c>
       <c r="AD12" t="n">
-        <v>318100.3242282171</v>
+        <v>390572.1160098627</v>
       </c>
       <c r="AE12" t="n">
-        <v>435238.8972049111</v>
+        <v>534397.9999503628</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.429661544737699e-06</v>
+        <v>2.663351023130297e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>393700.3077173025</v>
+        <v>483395.8048674031</v>
       </c>
     </row>
   </sheetData>
@@ -12976,28 +12976,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>387.8552129881609</v>
+        <v>454.5782034313663</v>
       </c>
       <c r="AB2" t="n">
-        <v>530.6806133747685</v>
+        <v>621.9739525097507</v>
       </c>
       <c r="AC2" t="n">
-        <v>480.0332004491986</v>
+        <v>562.6136314281443</v>
       </c>
       <c r="AD2" t="n">
-        <v>387855.2129881609</v>
+        <v>454578.2034313662</v>
       </c>
       <c r="AE2" t="n">
-        <v>530680.6133747685</v>
+        <v>621973.9525097507</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.256170806260124e-06</v>
+        <v>2.517991058531866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>480033.2004491986</v>
+        <v>562613.6314281443</v>
       </c>
     </row>
     <row r="3">
@@ -13082,28 +13082,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.7692762634464</v>
+        <v>378.3215849975085</v>
       </c>
       <c r="AB3" t="n">
-        <v>426.5764780733881</v>
+        <v>517.636282963975</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.8646177099104</v>
+        <v>468.2338026249785</v>
       </c>
       <c r="AD3" t="n">
-        <v>311769.2762634464</v>
+        <v>378321.5849975084</v>
       </c>
       <c r="AE3" t="n">
-        <v>426576.4780733881</v>
+        <v>517636.282963975</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.451426956182545e-06</v>
+        <v>2.909381494591884e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.41927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>385864.6177099104</v>
+        <v>468233.8026249785</v>
       </c>
     </row>
     <row r="4">
@@ -13188,28 +13188,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>281.0956980523943</v>
+        <v>347.7332581324769</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.6075351422617</v>
+        <v>475.7839846854978</v>
       </c>
       <c r="AC4" t="n">
-        <v>347.9011317883492</v>
+        <v>430.3758289541296</v>
       </c>
       <c r="AD4" t="n">
-        <v>281095.6980523943</v>
+        <v>347733.2581324769</v>
       </c>
       <c r="AE4" t="n">
-        <v>384607.5351422617</v>
+        <v>475783.9846854978</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.521068570859608e-06</v>
+        <v>3.048977927007502e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89192708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>347901.1317883492</v>
+        <v>430375.8289541296</v>
       </c>
     </row>
     <row r="5">
@@ -13294,28 +13294,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>267.2245539510971</v>
+        <v>333.8621140311797</v>
       </c>
       <c r="AB5" t="n">
-        <v>365.6284238311785</v>
+        <v>456.8048733744146</v>
       </c>
       <c r="AC5" t="n">
-        <v>330.7333602234457</v>
+        <v>413.2080573892262</v>
       </c>
       <c r="AD5" t="n">
-        <v>267224.5539510971</v>
+        <v>333862.1140311797</v>
       </c>
       <c r="AE5" t="n">
-        <v>365628.4238311785</v>
+        <v>456804.8733744146</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.557111160911772e-06</v>
+        <v>3.121225203433129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.64453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>330733.3602234458</v>
+        <v>413208.0573892262</v>
       </c>
     </row>
     <row r="6">
@@ -13400,28 +13400,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.2417587545209</v>
+        <v>329.8793188346035</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.1789877346997</v>
+        <v>451.3554372779358</v>
       </c>
       <c r="AC6" t="n">
-        <v>325.8040106596834</v>
+        <v>408.2787078254638</v>
       </c>
       <c r="AD6" t="n">
-        <v>263241.7587545209</v>
+        <v>329879.3188346035</v>
       </c>
       <c r="AE6" t="n">
-        <v>360178.9877346997</v>
+        <v>451355.4372779358</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.56426368054783e-06</v>
+        <v>3.135562410124939e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.59244791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>325804.0106596834</v>
+        <v>408278.7078254637</v>
       </c>
     </row>
     <row r="7">
@@ -13506,28 +13506,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.3838801767308</v>
+        <v>319.0716384768476</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.3734445345218</v>
+        <v>436.5678922112477</v>
       </c>
       <c r="AC7" t="n">
-        <v>325.9799087754524</v>
+        <v>394.9024653054905</v>
       </c>
       <c r="AD7" t="n">
-        <v>263383.8801767307</v>
+        <v>319071.6384768476</v>
       </c>
       <c r="AE7" t="n">
-        <v>360373.4445345218</v>
+        <v>436567.8922112477</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569634433726506e-06</v>
+        <v>3.146328070665763e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>325979.9087754523</v>
+        <v>394902.4653054905</v>
       </c>
     </row>
   </sheetData>
@@ -13803,28 +13803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.6492858070502</v>
+        <v>377.4355285022619</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.1487900711143</v>
+        <v>516.4239413771248</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.1914318608361</v>
+        <v>467.1371652176453</v>
       </c>
       <c r="AD2" t="n">
-        <v>313649.2858070502</v>
+        <v>377435.528502262</v>
       </c>
       <c r="AE2" t="n">
-        <v>429148.7900711143</v>
+        <v>516423.9413771249</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.417753022084545e-06</v>
+        <v>2.966027985521601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>388191.4318608361</v>
+        <v>467137.1652176453</v>
       </c>
     </row>
     <row r="3">
@@ -13909,28 +13909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.9972611930206</v>
+        <v>318.7834143796844</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.8985024493279</v>
+        <v>436.1735312859593</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.6001190577919</v>
+        <v>394.5457416334226</v>
       </c>
       <c r="AD3" t="n">
-        <v>254997.2611930206</v>
+        <v>318783.4143796844</v>
       </c>
       <c r="AE3" t="n">
-        <v>348898.5024493278</v>
+        <v>436173.5312859593</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.580710701457133e-06</v>
+        <v>3.30694564180287e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.91796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>315600.1190577918</v>
+        <v>394545.7416334226</v>
       </c>
     </row>
     <row r="4">
@@ -14015,28 +14015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>241.0999847654463</v>
+        <v>304.8861379521099</v>
       </c>
       <c r="AB4" t="n">
-        <v>329.883635736565</v>
+        <v>417.1586645731867</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.400004536556</v>
+        <v>377.3456271121839</v>
       </c>
       <c r="AD4" t="n">
-        <v>241099.9847654463</v>
+        <v>304886.1379521099</v>
       </c>
       <c r="AE4" t="n">
-        <v>329883.635736565</v>
+        <v>417158.6645731867</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.62766775485265e-06</v>
+        <v>3.405182734102598e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>298400.004536556</v>
+        <v>377345.627112184</v>
       </c>
     </row>
     <row r="5">
@@ -14121,28 +14121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>241.7263381399204</v>
+        <v>305.512491326584</v>
       </c>
       <c r="AB5" t="n">
-        <v>330.7406400562807</v>
+        <v>418.0156688929028</v>
       </c>
       <c r="AC5" t="n">
-        <v>299.1752175668113</v>
+        <v>378.1208401424394</v>
       </c>
       <c r="AD5" t="n">
-        <v>241726.3381399203</v>
+        <v>305512.491326584</v>
       </c>
       <c r="AE5" t="n">
-        <v>330740.6400562807</v>
+        <v>418015.6688929028</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.628383644430109e-06</v>
+        <v>3.406680419868884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>299175.2175668114</v>
+        <v>378120.8401424394</v>
       </c>
     </row>
   </sheetData>
@@ -25687,28 +25687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6820418755963</v>
+        <v>322.2743530929602</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.6766701742163</v>
+        <v>440.9499876428098</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.635949371639</v>
+        <v>398.8663396993739</v>
       </c>
       <c r="AD2" t="n">
-        <v>260682.0418755962</v>
+        <v>322274.3530929602</v>
       </c>
       <c r="AE2" t="n">
-        <v>356676.6701742163</v>
+        <v>440949.9876428099</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.546470434076336e-06</v>
+        <v>3.36180367602983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>322635.9493716389</v>
+        <v>398866.3396993739</v>
       </c>
     </row>
     <row r="3">
@@ -25793,28 +25793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.2903002775693</v>
+        <v>285.7972706403644</v>
       </c>
       <c r="AB3" t="n">
-        <v>306.8838838293225</v>
+        <v>391.0404341758661</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.5953166709789</v>
+        <v>353.720083966817</v>
       </c>
       <c r="AD3" t="n">
-        <v>224290.3002775693</v>
+        <v>285797.2706403644</v>
       </c>
       <c r="AE3" t="n">
-        <v>306883.8838293225</v>
+        <v>391040.4341758661</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.671679052481857e-06</v>
+        <v>3.633989153586473e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.68359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>277595.3166709789</v>
+        <v>353720.083966817</v>
       </c>
     </row>
     <row r="4">
@@ -25899,28 +25899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.8449530861647</v>
+        <v>286.3519234489598</v>
       </c>
       <c r="AB4" t="n">
-        <v>307.6427842715973</v>
+        <v>391.7993346181413</v>
       </c>
       <c r="AC4" t="n">
-        <v>278.2817887201667</v>
+        <v>354.4065560160049</v>
       </c>
       <c r="AD4" t="n">
-        <v>224844.9530861647</v>
+        <v>286351.9234489598</v>
       </c>
       <c r="AE4" t="n">
-        <v>307642.7842715973</v>
+        <v>391799.3346181413</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67343444165556e-06</v>
+        <v>3.637805116470071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>278281.7887201667</v>
+        <v>354406.5560160049</v>
       </c>
     </row>
   </sheetData>
@@ -26196,28 +26196,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.7127679252565</v>
+        <v>248.2747441390097</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.6240638975883</v>
+        <v>339.7004580395138</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.4143286765774</v>
+        <v>307.279923096911</v>
       </c>
       <c r="AD2" t="n">
-        <v>200712.7679252565</v>
+        <v>248274.7441390097</v>
       </c>
       <c r="AE2" t="n">
-        <v>274624.0638975883</v>
+        <v>339700.4580395138</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.721272811352582e-06</v>
+        <v>4.094093793381268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>248414.3286765774</v>
+        <v>307279.9230969111</v>
       </c>
     </row>
   </sheetData>
@@ -26493,28 +26493,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.5560370807034</v>
+        <v>545.1335798427579</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.6260646997273</v>
+        <v>745.8758135370695</v>
       </c>
       <c r="AC2" t="n">
-        <v>574.9628051915694</v>
+        <v>674.69047273637</v>
       </c>
       <c r="AD2" t="n">
-        <v>464556.0370807034</v>
+        <v>545133.5798427579</v>
       </c>
       <c r="AE2" t="n">
-        <v>635626.0646997273</v>
+        <v>745875.8135370695</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.125809457014254e-06</v>
+        <v>2.184721283993557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>574962.8051915694</v>
+        <v>674690.4727363701</v>
       </c>
     </row>
     <row r="3">
@@ -26599,28 +26599,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.4881330648611</v>
+        <v>435.9802454637929</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.3945466889221</v>
+        <v>596.5274059345182</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.9737338119644</v>
+        <v>539.5956675435995</v>
       </c>
       <c r="AD3" t="n">
-        <v>355488.1330648611</v>
+        <v>435980.2454637929</v>
       </c>
       <c r="AE3" t="n">
-        <v>486394.5466889221</v>
+        <v>596527.4059345182</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.341719468998225e-06</v>
+        <v>2.603711545329329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.94661458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>439973.7338119644</v>
+        <v>539595.6675435995</v>
       </c>
     </row>
     <row r="4">
@@ -26705,28 +26705,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.4103133975171</v>
+        <v>401.3792590038463</v>
       </c>
       <c r="AB4" t="n">
-        <v>454.8184556985138</v>
+        <v>549.1848097722309</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.4112206283586</v>
+        <v>496.7713823132899</v>
       </c>
       <c r="AD4" t="n">
-        <v>332410.3133975171</v>
+        <v>401379.2590038463</v>
       </c>
       <c r="AE4" t="n">
-        <v>454818.4556985138</v>
+        <v>549184.8097722309</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.42096853725095e-06</v>
+        <v>2.757500559153712e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.28255208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>411411.2206283586</v>
+        <v>496771.3823132899</v>
       </c>
     </row>
     <row r="5">
@@ -26811,28 +26811,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.8127639665236</v>
+        <v>375.8669609188734</v>
       </c>
       <c r="AB5" t="n">
-        <v>419.7947592828484</v>
+        <v>514.2777580092147</v>
       </c>
       <c r="AC5" t="n">
-        <v>379.7301366425377</v>
+        <v>465.1958105781813</v>
       </c>
       <c r="AD5" t="n">
-        <v>306812.7639665236</v>
+        <v>375866.9609188734</v>
       </c>
       <c r="AE5" t="n">
-        <v>419794.7592828484</v>
+        <v>514277.7580092148</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.462181007041277e-06</v>
+        <v>2.837476579390438e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.96354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>379730.1366425377</v>
+        <v>465195.8105781813</v>
       </c>
     </row>
     <row r="6">
@@ -26917,28 +26917,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>296.4677816502853</v>
+        <v>365.5219786026351</v>
       </c>
       <c r="AB6" t="n">
-        <v>405.6402980893616</v>
+        <v>500.1232968157281</v>
       </c>
       <c r="AC6" t="n">
-        <v>366.9265573594463</v>
+        <v>452.3922312950898</v>
       </c>
       <c r="AD6" t="n">
-        <v>296467.7816502853</v>
+        <v>365521.9786026351</v>
       </c>
       <c r="AE6" t="n">
-        <v>405640.2980893616</v>
+        <v>500123.2968157281</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488572743967938e-06</v>
+        <v>2.888691808598186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>366926.5573594463</v>
+        <v>452392.2312950898</v>
       </c>
     </row>
     <row r="7">
@@ -27023,28 +27023,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>287.7345330709766</v>
+        <v>356.7887300233265</v>
       </c>
       <c r="AB7" t="n">
-        <v>393.6910820994162</v>
+        <v>488.1740808257826</v>
       </c>
       <c r="AC7" t="n">
-        <v>356.1177577727512</v>
+        <v>441.5834317083948</v>
       </c>
       <c r="AD7" t="n">
-        <v>287734.5330709766</v>
+        <v>356788.7300233265</v>
       </c>
       <c r="AE7" t="n">
-        <v>393691.0820994162</v>
+        <v>488174.0808257826</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.504427481449999e-06</v>
+        <v>2.919459166443138e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>356117.7577727513</v>
+        <v>441583.4317083948</v>
       </c>
     </row>
     <row r="8">
@@ -27129,28 +27129,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>285.1585331280251</v>
+        <v>354.2127300803749</v>
       </c>
       <c r="AB8" t="n">
-        <v>390.166485332373</v>
+        <v>484.6494840587395</v>
       </c>
       <c r="AC8" t="n">
-        <v>352.9295435743521</v>
+        <v>438.3952175099957</v>
       </c>
       <c r="AD8" t="n">
-        <v>285158.5331280251</v>
+        <v>354212.7300803749</v>
       </c>
       <c r="AE8" t="n">
-        <v>390166.4853323731</v>
+        <v>484649.4840587395</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.507455637832442e-06</v>
+        <v>2.925335540689923e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.63151041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>352929.5435743521</v>
+        <v>438395.2175099957</v>
       </c>
     </row>
     <row r="9">
@@ -27235,28 +27235,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.2487979323025</v>
+        <v>355.3029948846523</v>
       </c>
       <c r="AB9" t="n">
-        <v>391.6582337366739</v>
+        <v>486.1412324630404</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.2789216046285</v>
+        <v>439.7445955402721</v>
       </c>
       <c r="AD9" t="n">
-        <v>286248.7979323025</v>
+        <v>355302.9948846523</v>
       </c>
       <c r="AE9" t="n">
-        <v>391658.233736674</v>
+        <v>486141.2324630404</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.508071116771964e-06</v>
+        <v>2.926529925699432e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH9" t="n">
-        <v>354278.9216046284</v>
+        <v>439744.5955402721</v>
       </c>
     </row>
   </sheetData>
@@ -27532,28 +27532,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.1438035134545</v>
+        <v>684.8545981414314</v>
       </c>
       <c r="AB2" t="n">
-        <v>789.6736137547174</v>
+        <v>937.0482748296047</v>
       </c>
       <c r="AC2" t="n">
-        <v>714.3082723718443</v>
+        <v>847.6177026353802</v>
       </c>
       <c r="AD2" t="n">
-        <v>577143.8035134545</v>
+        <v>684854.5981414315</v>
       </c>
       <c r="AE2" t="n">
-        <v>789673.6137547174</v>
+        <v>937048.2748296047</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.726522265788953e-07</v>
+        <v>1.825077079709794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.87890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>714308.2723718443</v>
+        <v>847617.7026353802</v>
       </c>
     </row>
     <row r="3">
@@ -27638,28 +27638,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.766899099771</v>
+        <v>511.5893731740708</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.2895430919951</v>
+        <v>699.9791501070174</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.4303305583275</v>
+        <v>633.1741224477103</v>
       </c>
       <c r="AD3" t="n">
-        <v>427766.899099771</v>
+        <v>511589.3731740708</v>
       </c>
       <c r="AE3" t="n">
-        <v>585289.5430919952</v>
+        <v>699979.1501070174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.212618500679374e-06</v>
+        <v>2.275347931712637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>529430.3305583275</v>
+        <v>633174.1224477103</v>
       </c>
     </row>
     <row r="4">
@@ -27744,28 +27744,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>383.6532704423977</v>
+        <v>455.5742546671445</v>
       </c>
       <c r="AB4" t="n">
-        <v>524.9313302070335</v>
+        <v>623.3367937532219</v>
       </c>
       <c r="AC4" t="n">
-        <v>474.8326207978226</v>
+        <v>563.8464050160983</v>
       </c>
       <c r="AD4" t="n">
-        <v>383653.2704423977</v>
+        <v>455574.2546671445</v>
       </c>
       <c r="AE4" t="n">
-        <v>524931.3302070335</v>
+        <v>623336.7937532219</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.305615811057414e-06</v>
+        <v>2.449847362246611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>474832.6207978226</v>
+        <v>563846.4050160983</v>
       </c>
     </row>
     <row r="5">
@@ -27850,28 +27850,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>367.3990222199947</v>
+        <v>439.1494142441493</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.6915507023195</v>
+        <v>600.863602473661</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.715374635312</v>
+        <v>543.5180235709366</v>
       </c>
       <c r="AD5" t="n">
-        <v>367399.0222199947</v>
+        <v>439149.4142441493</v>
       </c>
       <c r="AE5" t="n">
-        <v>502691.5507023195</v>
+        <v>600863.602473661</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.352778732749135e-06</v>
+        <v>2.538343502017412e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.41927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>454715.374635312</v>
+        <v>543518.0235709366</v>
       </c>
     </row>
     <row r="6">
@@ -27956,28 +27956,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>356.445586179368</v>
+        <v>416.3798292085414</v>
       </c>
       <c r="AB6" t="n">
-        <v>487.7045762800408</v>
+        <v>569.7092517047462</v>
       </c>
       <c r="AC6" t="n">
-        <v>441.1587360175448</v>
+        <v>515.3370003140011</v>
       </c>
       <c r="AD6" t="n">
-        <v>356445.586179368</v>
+        <v>416379.8292085414</v>
       </c>
       <c r="AE6" t="n">
-        <v>487704.5762800408</v>
+        <v>569709.2517047462</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.38286051579999e-06</v>
+        <v>2.59478872597585e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH6" t="n">
-        <v>441158.7360175448</v>
+        <v>515337.0003140011</v>
       </c>
     </row>
     <row r="7">
@@ -28062,28 +28062,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>334.5394569167925</v>
+        <v>406.3751002869676</v>
       </c>
       <c r="AB7" t="n">
-        <v>457.7316437927689</v>
+        <v>556.0203402167596</v>
       </c>
       <c r="AC7" t="n">
-        <v>414.0463781395833</v>
+        <v>502.9545393259202</v>
       </c>
       <c r="AD7" t="n">
-        <v>334539.4569167924</v>
+        <v>406375.1002869676</v>
       </c>
       <c r="AE7" t="n">
-        <v>457731.6437927689</v>
+        <v>556020.3402167596</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.407082519344883e-06</v>
+        <v>2.640238705204214e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>414046.3781395833</v>
+        <v>502954.5393259202</v>
       </c>
     </row>
     <row r="8">
@@ -28168,28 +28168,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.5209513125272</v>
+        <v>399.3565946827025</v>
       </c>
       <c r="AB8" t="n">
-        <v>448.128614790399</v>
+        <v>546.4173112143898</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.3598487472636</v>
+        <v>494.2680099336005</v>
       </c>
       <c r="AD8" t="n">
-        <v>327520.9513125272</v>
+        <v>399356.5946827024</v>
       </c>
       <c r="AE8" t="n">
-        <v>448128.614790399</v>
+        <v>546417.3112143897</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.419490068663178e-06</v>
+        <v>2.663520134329027e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.87890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>405359.8487472637</v>
+        <v>494268.0099336006</v>
       </c>
     </row>
     <row r="9">
@@ -28274,28 +28274,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>318.3984369329792</v>
+        <v>390.2340803031543</v>
       </c>
       <c r="AB9" t="n">
-        <v>435.6467881593709</v>
+        <v>533.9354845833617</v>
       </c>
       <c r="AC9" t="n">
-        <v>394.0692701315471</v>
+        <v>482.977431317884</v>
       </c>
       <c r="AD9" t="n">
-        <v>318398.4369329792</v>
+        <v>390234.0803031543</v>
       </c>
       <c r="AE9" t="n">
-        <v>435646.7881593709</v>
+        <v>533935.4845833617</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.434957988654627e-06</v>
+        <v>2.692544019203556e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.76171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>394069.2701315471</v>
+        <v>482977.431317884</v>
       </c>
     </row>
     <row r="10">
@@ -28380,28 +28380,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>313.2422798396098</v>
+        <v>385.077923209785</v>
       </c>
       <c r="AB10" t="n">
-        <v>428.5919065506262</v>
+        <v>526.880602974617</v>
       </c>
       <c r="AC10" t="n">
-        <v>387.6876965219525</v>
+        <v>476.5958577082894</v>
       </c>
       <c r="AD10" t="n">
-        <v>313242.2798396097</v>
+        <v>385077.923209785</v>
       </c>
       <c r="AE10" t="n">
-        <v>428591.9065506262</v>
+        <v>526880.6029746169</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.439180825707508e-06</v>
+        <v>2.700467717834945e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.72916666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>387687.6965219525</v>
+        <v>476595.8577082894</v>
       </c>
     </row>
     <row r="11">
@@ -28486,28 +28486,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>312.4115147794039</v>
+        <v>384.2471581495791</v>
       </c>
       <c r="AB11" t="n">
-        <v>427.4552171444847</v>
+        <v>525.7439135684755</v>
       </c>
       <c r="AC11" t="n">
-        <v>386.6594911573796</v>
+        <v>475.5676523437165</v>
       </c>
       <c r="AD11" t="n">
-        <v>312411.5147794039</v>
+        <v>384247.1581495791</v>
       </c>
       <c r="AE11" t="n">
-        <v>427455.2171444847</v>
+        <v>525743.9135684755</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.443783243619074e-06</v>
+        <v>2.709103659039943e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.69661458333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>386659.4911573796</v>
+        <v>475567.6523437165</v>
       </c>
     </row>
     <row r="12">
@@ -28592,28 +28592,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>313.147950135411</v>
+        <v>384.9835935055862</v>
       </c>
       <c r="AB12" t="n">
-        <v>428.4628404878086</v>
+        <v>526.7515369117993</v>
       </c>
       <c r="AC12" t="n">
-        <v>387.5709483430248</v>
+        <v>476.4791095293617</v>
       </c>
       <c r="AD12" t="n">
-        <v>313147.9501354109</v>
+        <v>384983.5935055861</v>
       </c>
       <c r="AE12" t="n">
-        <v>428462.8404878086</v>
+        <v>526751.5369117993</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.443901862637413e-06</v>
+        <v>2.709326234844196e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.69661458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>387570.9483430248</v>
+        <v>476479.1095293617</v>
       </c>
     </row>
   </sheetData>
@@ -28889,28 +28889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.688501602093</v>
+        <v>239.6496593814926</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.6989557735101</v>
+        <v>327.8992365624003</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.5817220997718</v>
+        <v>296.6049936344513</v>
       </c>
       <c r="AD2" t="n">
-        <v>184688.501602093</v>
+        <v>239649.6593814926</v>
       </c>
       <c r="AE2" t="n">
-        <v>252698.9557735101</v>
+        <v>327899.2365624004</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689650408986576e-06</v>
+        <v>4.22568744609721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>228581.7220997718</v>
+        <v>296604.9936344513</v>
       </c>
     </row>
   </sheetData>
@@ -29186,28 +29186,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.4120962119441</v>
+        <v>399.3811189125732</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.5573832576378</v>
+        <v>546.4508663476315</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.8887487853488</v>
+        <v>494.2983626120207</v>
       </c>
       <c r="AD2" t="n">
-        <v>334412.0962119441</v>
+        <v>399381.1189125733</v>
       </c>
       <c r="AE2" t="n">
-        <v>457557.3832576377</v>
+        <v>546450.8663476316</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.360012529453047e-06</v>
+        <v>2.800651304737464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>413888.7487853487</v>
+        <v>494298.3626120207</v>
       </c>
     </row>
     <row r="3">
@@ -29292,28 +29292,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>281.9626344386423</v>
+        <v>336.0324588189079</v>
       </c>
       <c r="AB3" t="n">
-        <v>385.7937157524602</v>
+        <v>459.7744348618387</v>
       </c>
       <c r="AC3" t="n">
-        <v>348.9741049859254</v>
+        <v>415.8942080960962</v>
       </c>
       <c r="AD3" t="n">
-        <v>281962.6344386423</v>
+        <v>336032.4588189079</v>
       </c>
       <c r="AE3" t="n">
-        <v>385793.7157524602</v>
+        <v>459774.4348618387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.532509315733094e-06</v>
+        <v>3.155871083302683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.10026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>348974.1049859254</v>
+        <v>415894.2080960962</v>
       </c>
     </row>
     <row r="4">
@@ -29398,28 +29398,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.7512705878833</v>
+        <v>317.5496115793723</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.8254390172683</v>
+        <v>434.4853878630344</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.8203444866154</v>
+        <v>393.0187122494574</v>
       </c>
       <c r="AD4" t="n">
-        <v>252751.2705878833</v>
+        <v>317549.6115793723</v>
       </c>
       <c r="AE4" t="n">
-        <v>345825.4390172682</v>
+        <v>434485.3878630344</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.593779379929809e-06</v>
+        <v>3.282043512980877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.67057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>312820.3444866154</v>
+        <v>393018.7122494574</v>
       </c>
     </row>
     <row r="5">
@@ -29504,28 +29504,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>248.8754408333332</v>
+        <v>313.6737818248222</v>
       </c>
       <c r="AB5" t="n">
-        <v>340.5223577575545</v>
+        <v>429.1823066033178</v>
       </c>
       <c r="AC5" t="n">
-        <v>308.0233818594057</v>
+        <v>388.2217496222469</v>
       </c>
       <c r="AD5" t="n">
-        <v>248875.4408333332</v>
+        <v>313673.7818248222</v>
       </c>
       <c r="AE5" t="n">
-        <v>340522.3577575545</v>
+        <v>429182.3066033178</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.610161610314176e-06</v>
+        <v>3.315779169018501e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.56640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>308023.3818594057</v>
+        <v>388221.7496222469</v>
       </c>
     </row>
   </sheetData>
@@ -29801,28 +29801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>408.3016645358684</v>
+        <v>487.1308158372833</v>
       </c>
       <c r="AB2" t="n">
-        <v>558.6563504161218</v>
+        <v>666.5138729234294</v>
       </c>
       <c r="AC2" t="n">
-        <v>505.3389724115186</v>
+        <v>602.9027243497125</v>
       </c>
       <c r="AD2" t="n">
-        <v>408301.6645358684</v>
+        <v>487130.8158372833</v>
       </c>
       <c r="AE2" t="n">
-        <v>558656.3504161218</v>
+        <v>666513.8729234294</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.212501090117451e-06</v>
+        <v>2.402187895260053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.50911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>505338.9724115186</v>
+        <v>602902.7243497125</v>
       </c>
     </row>
     <row r="3">
@@ -29907,28 +29907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.3766175303314</v>
+        <v>393.9444615029728</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.5628868251553</v>
+        <v>539.012191831419</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.9435516615097</v>
+        <v>487.5696247513901</v>
       </c>
       <c r="AD3" t="n">
-        <v>326376.6175303314</v>
+        <v>393944.4615029728</v>
       </c>
       <c r="AE3" t="n">
-        <v>446562.8868251552</v>
+        <v>539012.191831419</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412387680616896e-06</v>
+        <v>2.798200032515994e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.59505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>403943.5516615097</v>
+        <v>487569.6247513901</v>
       </c>
     </row>
     <row r="4">
@@ -30013,28 +30013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>306.5255848957967</v>
+        <v>362.8322110482156</v>
       </c>
       <c r="AB4" t="n">
-        <v>419.4018282088336</v>
+        <v>496.4430381836017</v>
       </c>
       <c r="AC4" t="n">
-        <v>379.3747063587445</v>
+        <v>449.0632113815381</v>
       </c>
       <c r="AD4" t="n">
-        <v>306525.5848957967</v>
+        <v>362832.2110482156</v>
       </c>
       <c r="AE4" t="n">
-        <v>419401.8282088336</v>
+        <v>496443.0381836017</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.484383077295655e-06</v>
+        <v>2.940836168537451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.03515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>379374.7063587445</v>
+        <v>449063.2113815381</v>
       </c>
     </row>
     <row r="5">
@@ -30119,28 +30119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>281.6438827117703</v>
+        <v>349.12638582984</v>
       </c>
       <c r="AB5" t="n">
-        <v>385.3575855774203</v>
+        <v>477.6901234614862</v>
       </c>
       <c r="AC5" t="n">
-        <v>348.5795984626787</v>
+        <v>432.1000485206203</v>
       </c>
       <c r="AD5" t="n">
-        <v>281643.8827117703</v>
+        <v>349126.38582984</v>
       </c>
       <c r="AE5" t="n">
-        <v>385357.5855774203</v>
+        <v>477690.1234614862</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.52292149368694e-06</v>
+        <v>3.017187866785136e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>348579.5984626787</v>
+        <v>432100.0485206203</v>
       </c>
     </row>
     <row r="6">
@@ -30225,28 +30225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>271.704604293825</v>
+        <v>339.1871074118947</v>
       </c>
       <c r="AB6" t="n">
-        <v>371.7582263559707</v>
+        <v>464.0907642400367</v>
       </c>
       <c r="AC6" t="n">
-        <v>336.2781429985038</v>
+        <v>419.7985930564454</v>
       </c>
       <c r="AD6" t="n">
-        <v>271704.604293825</v>
+        <v>339187.1074118947</v>
       </c>
       <c r="AE6" t="n">
-        <v>371758.2263559707</v>
+        <v>464090.7642400367</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.544203151824686e-06</v>
+        <v>3.059350749760033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>336278.1429985038</v>
+        <v>419798.5930564454</v>
       </c>
     </row>
     <row r="7">
@@ -30331,28 +30331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>270.4934857991024</v>
+        <v>337.9759889171721</v>
       </c>
       <c r="AB7" t="n">
-        <v>370.1011206007143</v>
+        <v>462.4336584847803</v>
       </c>
       <c r="AC7" t="n">
-        <v>334.7791890907665</v>
+        <v>418.2996391487081</v>
       </c>
       <c r="AD7" t="n">
-        <v>270493.4857991024</v>
+        <v>337975.9889171721</v>
       </c>
       <c r="AE7" t="n">
-        <v>370101.1206007143</v>
+        <v>462433.6584847803</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.5488569423158e-06</v>
+        <v>3.068570765540595e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>334779.1890907665</v>
+        <v>418299.6391487081</v>
       </c>
     </row>
   </sheetData>
